--- a/acceptedCandidatesInfo.xlsx
+++ b/acceptedCandidatesInfo.xlsx
@@ -1,115 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmedmaged3k1@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 1142434195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>loayhesham7@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 1091266171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed.wael.zaki07@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noranzaki2012@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201003400664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>i.nouran@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 1099975171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tarekamrmohamed9@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201021179311</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="0"/>
-    <tableStyle name="Table Style 2" pivot="0" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="1">
+    <x:dxf>
+      <x:font>
+        <x:b val="0"/>
+        <x:i val="0"/>
+      </x:font>
+    </x:dxf>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <x:tableStyle name="Table Style 1" pivot="0" count="0"/>
+    <x:tableStyle name="Table Style 2" pivot="0" count="1">
+      <x:tableStyleElement type="secondColumnStripe" dxfId="0"/>
+    </x:tableStyle>
+  </x:tableStyles>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A1048576" totalsRowShown="0">
-  <autoFilter ref="A1:A1048576"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Email"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B1:B1048576" totalsRowShown="0">
+  <x:autoFilter ref="B1:B1048576"/>
+  <x:tableColumns count="1">
+    <x:tableColumn id="1" name="Phone Number"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:B1048576" totalsRowShown="0">
-  <autoFilter ref="B1:B1048576"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Phone Number"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:A1048576" totalsRowShown="0">
+  <x:autoFilter ref="A1:A1048576"/>
+  <x:tableColumns count="1">
+    <x:tableColumn id="1" name="Email"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,33 +425,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A2:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A19" sqref="A19 A19:A19 A2:B19"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="29.886719" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="32.332031" style="2" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="2" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="2">
+    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId6"/>
+  </x:tableParts>
+</x:worksheet>
 </file>